--- a/results/results_formatted/evaluation_freeRoaming_run1_formatted.xlsx
+++ b/results/results_formatted/evaluation_freeRoaming_run1_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\results (free roaming)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (free roaming)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F302B7EA-282C-42DB-9103-C9B511A84904}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_freeRoaming_run1-col" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,31 +948,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -962,7 +1013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1045,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1077,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1118,7 @@
         <v>82.28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1159,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1200,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1241,7 @@
         <v>68.84</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1282,7 @@
         <v>62.21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1314,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1304,7 +1355,7 @@
         <v>42.45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1387,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1419,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1460,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1501,7 @@
         <v>55.59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1542,7 @@
         <v>55.74</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1583,7 @@
         <v>52.58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1573,7 +1624,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1665,7 @@
         <v>75.510000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1706,7 @@
         <v>43.53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1747,7 @@
         <v>70.48</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1788,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +1829,7 @@
         <v>66.28</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1819,7 +1870,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1911,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1952,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1942,7 +1993,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +2025,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2066,7 @@
         <v>40.229999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2098,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2088,7 +2139,7 @@
         <v>44.58</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2171,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2212,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2202,7 +2253,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -2243,7 +2294,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2335,7 @@
         <v>67.209999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -2325,7 +2376,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2408,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -2398,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2490,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2531,7 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2512,7 +2563,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2595,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2627,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +2668,7 @@
         <v>32.85</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2658,7 +2709,7 @@
         <v>68.72</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -2699,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2791,7 @@
         <v>53.28</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2781,7 +2832,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +2873,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2905,7 @@
         <v>27.65</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -2895,7 +2946,7 @@
         <v>69.31</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2987,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -2977,7 +3028,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +3069,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3059,7 +3110,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -3100,7 +3151,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3224,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3256,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3297,7 @@
         <v>72.12</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3287,7 +3338,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3328,7 +3379,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3420,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3452,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3442,7 +3493,7 @@
         <v>27.92</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3534,7 @@
         <v>75.02</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3566,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -3556,7 +3607,7 @@
         <v>70.040000000000006</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -3629,7 +3680,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -3670,7 +3721,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -3711,7 +3762,7 @@
         <v>68.45</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3844,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -3834,7 +3885,7 @@
         <v>74.16</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3917,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -3907,7 +3958,7 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3990,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +4031,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -4021,7 +4072,7 @@
         <v>64.819999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -4032,7 +4083,7 @@
         <v>165.94</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +4094,7 @@
         <v>132.55000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -4054,7 +4105,7 @@
         <v>141.04</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -4065,7 +4116,7 @@
         <v>208.27</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -4076,7 +4127,7 @@
         <v>160.41</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -4087,7 +4138,7 @@
         <v>180.73</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4149,7 @@
         <v>223.21</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -4107,6 +4158,57 @@
       </c>
       <c r="C88">
         <v>174.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="3">
+        <f>COUNTIF(A2:A80,"transportation")</f>
+        <v>59</v>
+      </c>
+      <c r="G91" s="3">
+        <f>AVERAGEIF(A2:A80,"transportation",F2:F80)</f>
+        <v>124.66084745762711</v>
+      </c>
+      <c r="H91" s="3">
+        <f>AVERAGEIF(A2:A80,"transportation",H2:H80)</f>
+        <v>62.8184745762712</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="3">
+        <f>COUNTIF(A2:A80,"charging")</f>
+        <v>20</v>
+      </c>
+      <c r="G92" s="3">
+        <f>AVERAGEIF(A2:A80,"charging",F2:F80)</f>
+        <v>37.9345</v>
+      </c>
+      <c r="H92" s="3">
+        <f>AVERAGEIF(A2:A80,"charging",H2:H80)</f>
+        <v>0.27749999999999997</v>
       </c>
     </row>
   </sheetData>
